--- a/db/excel/sqlite-inovation-manager-v2.xlsx
+++ b/db/excel/sqlite-inovation-manager-v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="innovations" sheetId="30" r:id="rId1"/>
@@ -519,7 +519,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,6 +644,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1602,7 +1609,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1701,6 +1708,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="829">
@@ -2836,8 +2849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD36"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2936,7 +2949,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="21"/>
       <c r="O2" s="21">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25">
@@ -2963,7 +2976,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="21"/>
       <c r="O3" s="21">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="23.25">
@@ -2990,7 +3003,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="38.25">
@@ -3017,7 +3030,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="21"/>
       <c r="O5" s="21">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="38.25">
@@ -3044,7 +3057,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="23.25">
@@ -3071,7 +3084,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="23.25">
@@ -3098,7 +3111,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="23.25">
@@ -3125,7 +3138,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="23.25">
@@ -3157,8 +3170,8 @@
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
-      <c r="O10" s="16">
-        <v>41</v>
+      <c r="O10" s="48">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="23.25">
@@ -3184,8 +3197,8 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="16">
-        <v>42</v>
+      <c r="O11" s="48">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="23.25">
@@ -3211,8 +3224,8 @@
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="16">
-        <v>43</v>
+      <c r="O12" s="48">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="23.25">
@@ -3238,8 +3251,8 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="16">
-        <v>44</v>
+      <c r="O13" s="48">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="38.25">
@@ -3265,8 +3278,8 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
-      <c r="O14" s="16">
-        <v>45</v>
+      <c r="O14" s="48">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="23.25">
@@ -3292,8 +3305,8 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="16">
-        <v>46</v>
+      <c r="O15" s="48">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="23.25">
@@ -3325,8 +3338,8 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
-      <c r="O16" s="18">
-        <v>47</v>
+      <c r="O16" s="21">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="23.25">
@@ -3352,8 +3365,8 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
-      <c r="O17" s="18">
-        <v>48</v>
+      <c r="O17" s="21">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="23.25">
@@ -3379,8 +3392,8 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
-      <c r="O18" s="18">
-        <v>49</v>
+      <c r="O18" s="21">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="23.25">
@@ -3406,8 +3419,8 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
-      <c r="O19" s="18">
-        <v>50</v>
+      <c r="O19" s="21">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="23.25">
@@ -3433,8 +3446,8 @@
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="18">
-        <v>51</v>
+      <c r="O20" s="21">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="23.25">
@@ -3466,8 +3479,8 @@
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
-      <c r="O21" s="19">
-        <v>52</v>
+      <c r="O21" s="47">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="23.25">
@@ -3493,8 +3506,8 @@
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
-      <c r="O22" s="19">
-        <v>53</v>
+      <c r="O22" s="47">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="23.25">
@@ -3520,8 +3533,8 @@
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
-      <c r="O23" s="19">
-        <v>54</v>
+      <c r="O23" s="47">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="23.25">
@@ -3547,8 +3560,8 @@
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
-      <c r="O24" s="19">
-        <v>55</v>
+      <c r="O24" s="47">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4116,8 +4129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
